--- a/robots/static/robots/documents/robots.xlsx
+++ b/robots/static/robots/documents/robots.xlsx
@@ -7,6 +7,9 @@
     <sheet name="13" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="14" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="15" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="A2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="A6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BB" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -485,7 +488,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +641,160 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Серия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Кол-во за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Серия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Кол-во за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Серия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Кол-во за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
